--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\BI\6th Semester\Software Engineering\Project\KO7F\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>User story</t>
   </si>
@@ -189,12 +189,24 @@
   </si>
   <si>
     <t xml:space="preserve">amr hesham </t>
+  </si>
+  <si>
+    <t>mohamed samer Elhossamy</t>
+  </si>
+  <si>
+    <t>Omar Khaled Mostafa</t>
+  </si>
+  <si>
+    <t>Fatima Abdellatif</t>
+  </si>
+  <si>
+    <t>Yasseen Sherif Mohsen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -265,9 +277,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -283,6 +292,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -321,15 +333,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -382,14 +394,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>365760</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -435,20 +452,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>365760</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -494,7 +516,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -791,25 +813,25 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="98.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="98.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,15 +851,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -851,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -862,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -885,7 +907,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -902,7 +924,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -916,7 +938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.6</v>
       </c>
@@ -930,7 +952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.7</v>
       </c>
@@ -947,7 +969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -961,7 +983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.9</v>
       </c>
@@ -978,8 +1000,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" t="s">
@@ -992,252 +1014,252 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>2.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="D28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4">
         <v>2.11</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2.12</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>2.13</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>2.14</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1257,611 +1279,611 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.3</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5">
-        <v>5</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.4</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="5">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.5</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>8</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.6</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="4">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.7</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>8</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>2</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>2.1</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="5">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>8</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="5">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.4</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="5">
-        <v>5</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>1.6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.6</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.7</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.8</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="5">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.9</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>8</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>2.1</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.11</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="5">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.12</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>8</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1889,15 +1911,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1911,15 +1933,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1933,15 +1955,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1960,7 +1982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1972,7 +1994,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
